--- a/data/black_body_radiation_spectrum.xlsx
+++ b/data/black_body_radiation_spectrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gadi.bessudo/Library/CloudStorage/GoogleDrive-gadibessudo@gmail.com/My Drive/Projects/University/Lab C/2025a/WaveParticleDuality/wave-particle-duality-experiment-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491977B-5C5D-6E41-B0FC-1D9C044CD03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76013A9-7773-9741-87FA-3B54FA791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{42811CE2-A1BB-A54D-9016-A5B1765426A4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="starting_angle" sheetId="3" r:id="rId2"/>
     <sheet name="lightbulb_four_wires" sheetId="4" r:id="rId3"/>
     <sheet name="lightbulb_resistance_low_temp" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="max_intensity_angle" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/black_body_radiation_spectrum.xlsx
+++ b/data/black_body_radiation_spectrum.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gadi.bessudo/Library/CloudStorage/GoogleDrive-gadibessudo@gmail.com/My Drive/Projects/University/Lab C/2025a/WaveParticleDuality/wave-particle-duality-experiment-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76013A9-7773-9741-87FA-3B54FA791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B0EE0-9C85-9B46-A84E-0D34CD56834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{42811CE2-A1BB-A54D-9016-A5B1765426A4}"/>
+    <workbookView xWindow="43740" yWindow="1100" windowWidth="30240" windowHeight="18880" xr2:uid="{42811CE2-A1BB-A54D-9016-A5B1765426A4}"/>
   </bookViews>
   <sheets>
     <sheet name="rotation_ratio" sheetId="2" r:id="rId1"/>
     <sheet name="starting_angle" sheetId="3" r:id="rId2"/>
-    <sheet name="lightbulb_four_wires" sheetId="4" r:id="rId3"/>
+    <sheet name="lightbulb_with_wires" sheetId="4" r:id="rId3"/>
     <sheet name="lightbulb_resistance_low_temp" sheetId="5" r:id="rId4"/>
     <sheet name="max_intensity_angle" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>starting_angle-rad</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>max_intensity_angle_measurement_3-rad</t>
+  </si>
+  <si>
+    <t>explanation - The first measurement was good but the rest of the measurements were actually failures. Therefore, we decided to take R0=1.28±0.01</t>
   </si>
 </sst>
 </file>
@@ -479,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305B3024-D3E2-6348-9022-EEFC4DCC3B43}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,32 +495,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>369.52699999999999</v>
+        <v>375.61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>335.13900000000001</v>
+        <v>332.14100000000002</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>357.95299999999997</v>
+        <v>356.91300000000001</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>368.14</v>
+        <v>349.66399999999999</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>348.66800000000001</v>
+        <v>362.28</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>374.61</v>
+        <v>370.41300000000001</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +533,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,22 +545,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-66.147999999999996</v>
+        <v>66.037000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-66.673000000000002</v>
+        <v>66.326999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-66.602999999999994</v>
+        <v>66.61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-66.466999999999999</v>
+        <v>66.688000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +573,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,60 +665,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038F60D7-62A7-9645-87BB-17ADE3CE04B8}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.2829999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.278</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.2769999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.276</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.2749999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.274</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.2649999999999999</v>
       </c>
@@ -729,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2389F9-CC3D-B94D-916A-D68809A10A24}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>

--- a/data/black_body_radiation_spectrum.xlsx
+++ b/data/black_body_radiation_spectrum.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gadi.bessudo/Library/CloudStorage/GoogleDrive-gadibessudo@gmail.com/My Drive/Projects/University/Lab C/2025a/WaveParticleDuality/wave-particle-duality-experiment-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B0EE0-9C85-9B46-A84E-0D34CD56834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF755B-94FA-0F41-8285-69E8881B4924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43740" yWindow="1100" windowWidth="30240" windowHeight="18880" xr2:uid="{42811CE2-A1BB-A54D-9016-A5B1765426A4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{42811CE2-A1BB-A54D-9016-A5B1765426A4}"/>
   </bookViews>
   <sheets>
     <sheet name="rotation_ratio" sheetId="2" r:id="rId1"/>
     <sheet name="starting_angle" sheetId="3" r:id="rId2"/>
     <sheet name="lightbulb_with_wires" sheetId="4" r:id="rId3"/>
     <sheet name="lightbulb_resistance_low_temp" sheetId="5" r:id="rId4"/>
-    <sheet name="max_intensity_angle" sheetId="6" r:id="rId5"/>
+    <sheet name="max_intensity_wavelength" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305B3024-D3E2-6348-9022-EEFC4DCC3B43}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2389F9-CC3D-B94D-916A-D68809A10A24}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/black_body_radiation_spectrum.xlsx
+++ b/data/black_body_radiation_spectrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gadi.bessudo/Library/CloudStorage/GoogleDrive-gadibessudo@gmail.com/My Drive/Projects/University/Lab C/2025a/WaveParticleDuality/wave-particle-duality-experiment-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF755B-94FA-0F41-8285-69E8881B4924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5E0BE3-F5D7-4745-8C04-6AA1D0E06858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{42811CE2-A1BB-A54D-9016-A5B1765426A4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{42811CE2-A1BB-A54D-9016-A5B1765426A4}"/>
   </bookViews>
   <sheets>
     <sheet name="rotation_ratio" sheetId="2" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305B3024-D3E2-6348-9022-EEFC4DCC3B43}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,7 +500,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>332.14100000000002</v>
+        <v>367.14100000000002</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -510,7 +510,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>349.66399999999999</v>
+        <v>379.66399999999999</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -520,7 +520,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>370.41300000000001</v>
+        <v>380.41300000000001</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +533,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2389F9-CC3D-B94D-916A-D68809A10A24}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/black_body_radiation_spectrum.xlsx
+++ b/data/black_body_radiation_spectrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gadi.bessudo/Library/CloudStorage/GoogleDrive-gadibessudo@gmail.com/My Drive/Projects/University/Lab C/2025a/WaveParticleDuality/wave-particle-duality-experiment-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5E0BE3-F5D7-4745-8C04-6AA1D0E06858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38531E4-87EB-0F4A-A010-2C60C7E95EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{42811CE2-A1BB-A54D-9016-A5B1765426A4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{42811CE2-A1BB-A54D-9016-A5B1765426A4}"/>
   </bookViews>
   <sheets>
     <sheet name="rotation_ratio" sheetId="2" r:id="rId1"/>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305B3024-D3E2-6348-9022-EEFC4DCC3B43}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A420364E-BB77-6E40-8AE2-39E64B3236F2}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
